--- a/Jogos_do_Dia/2023-06-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>League</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
+    <t>Ecuador Primera Categoría Serie A</t>
+  </si>
+  <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>Estudiantes Río Cuarto</t>
   </si>
   <si>
+    <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
     <t>Valour FC</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
   </si>
   <si>
     <t>Temperley</t>
+  </si>
+  <si>
+    <t>CD El Nacional</t>
   </si>
   <si>
     <t>Forge FC</t>
@@ -534,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,25 +664,25 @@
         <v>45093</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I2">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -762,25 +771,25 @@
         <v>45093</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -795,10 +804,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O3">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="P3">
         <v>1.36</v>
@@ -869,25 +878,25 @@
         <v>45093</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -905,7 +914,7 @@
         <v>1.76</v>
       </c>
       <c r="O4">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="P4">
         <v>1.38</v>
@@ -976,25 +985,25 @@
         <v>45093</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H5">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="J5">
         <v>1.1</v>
@@ -1051,25 +1060,25 @@
         <v>3.15</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1083,102 +1092,209 @@
         <v>45093</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>1.37</v>
+      </c>
+      <c r="H6">
+        <v>4.15</v>
+      </c>
+      <c r="I6">
+        <v>6.25</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.46</v>
+      </c>
+      <c r="O6">
+        <v>2.24</v>
+      </c>
+      <c r="P6">
+        <v>1.29</v>
+      </c>
+      <c r="Q6">
+        <v>3.5</v>
+      </c>
+      <c r="R6">
+        <v>1.67</v>
+      </c>
+      <c r="S6">
+        <v>2.1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>2.57</v>
+      </c>
+      <c r="X6">
+        <v>1.71</v>
+      </c>
+      <c r="Y6">
+        <v>1.7</v>
+      </c>
+      <c r="Z6">
+        <v>1.82</v>
+      </c>
+      <c r="AA6">
+        <v>3.52</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45093</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>2.08</v>
+      </c>
+      <c r="H7">
+        <v>2.99</v>
+      </c>
+      <c r="I7">
+        <v>3.3</v>
+      </c>
+      <c r="J7">
+        <v>1.04</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>1.38</v>
+      </c>
+      <c r="M7">
+        <v>2.71</v>
+      </c>
+      <c r="N7">
+        <v>2.15</v>
+      </c>
+      <c r="O7">
+        <v>1.53</v>
+      </c>
+      <c r="P7">
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>1.67</v>
+      </c>
+      <c r="T7">
+        <v>1.33</v>
+      </c>
+      <c r="U7">
+        <v>1.34</v>
+      </c>
+      <c r="V7">
+        <v>1.6</v>
+      </c>
+      <c r="W7">
         <v>1</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <v>2.5</v>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <v>1.27</v>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <v>1.47</v>
       </c>
-      <c r="AA6">
+      <c r="AA7">
         <v>2.74</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>League</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Cerro Largo</t>
   </si>
   <si>
-    <t>Huachipato</t>
-  </si>
-  <si>
     <t>Estudiantes Río Cuarto</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
   </si>
   <si>
     <t>Liverpool FC Montevideo</t>
-  </si>
-  <si>
-    <t>Magallanes</t>
   </si>
   <si>
     <t>Temperley</t>
@@ -543,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,25 +655,25 @@
         <v>45093</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -697,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -771,25 +762,25 @@
         <v>45093</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>3.1</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -804,10 +795,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="P3">
         <v>1.36</v>
@@ -881,100 +872,100 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>1.77</v>
+        <v>2.6</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3.95</v>
+        <v>2.63</v>
       </c>
       <c r="J4">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>6.25</v>
       </c>
       <c r="L4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>1.76</v>
+        <v>2.59</v>
       </c>
       <c r="O4">
+        <v>1.44</v>
+      </c>
+      <c r="P4">
+        <v>1.58</v>
+      </c>
+      <c r="Q4">
+        <v>2.2</v>
+      </c>
+      <c r="R4">
+        <v>2.15</v>
+      </c>
+      <c r="S4">
+        <v>1.61</v>
+      </c>
+      <c r="T4">
+        <v>1.44</v>
+      </c>
+      <c r="U4">
+        <v>1.33</v>
+      </c>
+      <c r="V4">
+        <v>1.4</v>
+      </c>
+      <c r="W4">
+        <v>1.67</v>
+      </c>
+      <c r="X4">
+        <v>0.78</v>
+      </c>
+      <c r="Y4">
+        <v>1.79</v>
+      </c>
+      <c r="Z4">
+        <v>1.36</v>
+      </c>
+      <c r="AA4">
+        <v>3.15</v>
+      </c>
+      <c r="AB4">
+        <v>1.72</v>
+      </c>
+      <c r="AC4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>2.55</v>
+      </c>
+      <c r="AE4">
+        <v>1.52</v>
+      </c>
+      <c r="AF4">
         <v>1.88</v>
       </c>
-      <c r="P4">
-        <v>1.38</v>
-      </c>
-      <c r="Q4">
-        <v>2.8</v>
-      </c>
-      <c r="R4">
-        <v>1.78</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>1.25</v>
-      </c>
-      <c r="U4">
-        <v>1.25</v>
-      </c>
-      <c r="V4">
-        <v>1.87</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>0.43</v>
-      </c>
-      <c r="Y4">
-        <v>1.51</v>
-      </c>
-      <c r="Z4">
-        <v>1.4</v>
-      </c>
-      <c r="AA4">
-        <v>2.91</v>
-      </c>
-      <c r="AB4">
-        <v>1.69</v>
-      </c>
-      <c r="AC4">
-        <v>8</v>
-      </c>
-      <c r="AD4">
-        <v>2.63</v>
-      </c>
-      <c r="AE4">
-        <v>1.27</v>
-      </c>
-      <c r="AF4">
-        <v>1.51</v>
-      </c>
       <c r="AG4">
-        <v>1.9</v>
+        <v>2.37</v>
       </c>
       <c r="AH4">
-        <v>2.44</v>
+        <v>3.28</v>
       </c>
       <c r="AI4">
-        <v>3.28</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -988,100 +979,100 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="I5">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>6.25</v>
+        <v>16</v>
       </c>
       <c r="L5">
+        <v>1.14</v>
+      </c>
+      <c r="M5">
+        <v>4.5</v>
+      </c>
+      <c r="N5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>2.5</v>
-      </c>
-      <c r="N5">
-        <v>2.54</v>
-      </c>
       <c r="O5">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="P5">
+        <v>1.29</v>
+      </c>
+      <c r="Q5">
+        <v>3.5</v>
+      </c>
+      <c r="R5">
+        <v>1.67</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5">
+        <v>1.14</v>
+      </c>
+      <c r="U5">
+        <v>1.18</v>
+      </c>
+      <c r="V5">
+        <v>2.33</v>
+      </c>
+      <c r="W5">
+        <v>2.57</v>
+      </c>
+      <c r="X5">
+        <v>1.71</v>
+      </c>
+      <c r="Y5">
+        <v>1.7</v>
+      </c>
+      <c r="Z5">
+        <v>1.82</v>
+      </c>
+      <c r="AA5">
+        <v>3.52</v>
+      </c>
+      <c r="AB5">
+        <v>1.42</v>
+      </c>
+      <c r="AC5">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>3.4</v>
+      </c>
+      <c r="AE5">
+        <v>1.28</v>
+      </c>
+      <c r="AF5">
         <v>1.58</v>
       </c>
-      <c r="Q5">
-        <v>2.2</v>
-      </c>
-      <c r="R5">
-        <v>2.15</v>
-      </c>
-      <c r="S5">
-        <v>1.61</v>
-      </c>
-      <c r="T5">
-        <v>1.44</v>
-      </c>
-      <c r="U5">
-        <v>1.33</v>
-      </c>
-      <c r="V5">
-        <v>1.4</v>
-      </c>
-      <c r="W5">
-        <v>1.67</v>
-      </c>
-      <c r="X5">
-        <v>0.78</v>
-      </c>
-      <c r="Y5">
-        <v>1.79</v>
-      </c>
-      <c r="Z5">
-        <v>1.36</v>
-      </c>
-      <c r="AA5">
-        <v>3.15</v>
-      </c>
-      <c r="AB5">
-        <v>1.72</v>
-      </c>
-      <c r="AC5">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AD5">
-        <v>2.55</v>
-      </c>
-      <c r="AE5">
-        <v>1.52</v>
-      </c>
-      <c r="AF5">
-        <v>1.88</v>
-      </c>
       <c r="AG5">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="AH5">
-        <v>3.28</v>
+        <v>2.45</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1092,79 +1083,79 @@
         <v>45093</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="H6">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>6.25</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="N6">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>2.24</v>
+        <v>1.6</v>
       </c>
       <c r="P6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="Q6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
+        <v>2.1</v>
+      </c>
+      <c r="S6">
         <v>1.67</v>
       </c>
-      <c r="S6">
-        <v>2.1</v>
-      </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W6">
-        <v>2.57</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="Z6">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="AA6">
-        <v>3.52</v>
+        <v>2.74</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1188,113 +1179,6 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45093</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7">
-        <v>2.08</v>
-      </c>
-      <c r="H7">
-        <v>2.99</v>
-      </c>
-      <c r="I7">
-        <v>3.3</v>
-      </c>
-      <c r="J7">
-        <v>1.04</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>1.38</v>
-      </c>
-      <c r="M7">
-        <v>2.71</v>
-      </c>
-      <c r="N7">
-        <v>2.15</v>
-      </c>
-      <c r="O7">
-        <v>1.53</v>
-      </c>
-      <c r="P7">
-        <v>1.5</v>
-      </c>
-      <c r="Q7">
-        <v>2.5</v>
-      </c>
-      <c r="R7">
-        <v>2.1</v>
-      </c>
-      <c r="S7">
-        <v>1.67</v>
-      </c>
-      <c r="T7">
-        <v>1.33</v>
-      </c>
-      <c r="U7">
-        <v>1.34</v>
-      </c>
-      <c r="V7">
-        <v>1.6</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>2.5</v>
-      </c>
-      <c r="Y7">
-        <v>1.27</v>
-      </c>
-      <c r="Z7">
-        <v>1.47</v>
-      </c>
-      <c r="AA7">
-        <v>2.74</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
         <v>0</v>
       </c>
     </row>
